--- a/demo/Results_chocolate/Distance/Posthoc.xlsx
+++ b/demo/Results_chocolate/Distance/Posthoc.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="30" uniqueCount="28">
   <si>
     <t>Gender</t>
   </si>
@@ -39,16 +39,19 @@
     <t>emmCI_1</t>
   </si>
   <si>
-    <t>1.86 (1.85, 1.87)</t>
-  </si>
-  <si>
-    <t>2.05 (2.04, 2.06)</t>
+    <t>6.40 (6.35, 6.46)</t>
+  </si>
+  <si>
+    <t>7.78 (7.71, 7.86)</t>
   </si>
   <si>
     <t>emmCI_2</t>
   </si>
   <si>
-    <t>1.86 (1.85, 1.86)</t>
+    <t>6.40 (6.35, 6.45)</t>
+  </si>
+  <si>
+    <t>7.79 (7.72, 7.87)</t>
   </si>
   <si>
     <t>p</t>
@@ -154,7 +157,7 @@
     <col min="7" max="7" width="13.7109375" customWidth="true"/>
     <col min="8" max="8" width="15.42578125" customWidth="true"/>
     <col min="9" max="9" width="14.42578125" customWidth="true"/>
-    <col min="10" max="10" width="11.7109375" customWidth="true"/>
+    <col min="10" max="10" width="10.7109375" customWidth="true"/>
     <col min="11" max="11" width="4.42578125" customWidth="true"/>
     <col min="12" max="12" width="4.42578125" customWidth="true"/>
     <col min="13" max="13" width="12.7109375" customWidth="true"/>
@@ -180,37 +183,37 @@
         <v>10</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2">
@@ -230,19 +233,19 @@
         <v>11</v>
       </c>
       <c r="F2" s="0">
-        <v>0.045806252028171818</v>
+        <v>0.045806251947808324</v>
       </c>
       <c r="G2" s="0">
-        <v>0.04580625202817179</v>
+        <v>0.045806251947808296</v>
       </c>
       <c r="H2" s="0">
-        <v>-0.0016437045720394394</v>
+        <v>-0.0016437045720376631</v>
       </c>
       <c r="I2" s="0">
-        <v>-0.025662985979886262</v>
+        <v>-0.025662985979894047</v>
       </c>
       <c r="J2" s="0">
-        <v>4.0090864672660222</v>
+        <v>4.0090864702492341</v>
       </c>
       <c r="K2" s="0">
         <v>1</v>
@@ -251,16 +254,16 @@
         <v>490</v>
       </c>
       <c r="M2" s="0">
-        <v>0.18090670652985127</v>
+        <v>0.18090670659715877</v>
       </c>
       <c r="N2" s="0">
-        <v>0.0081154103782495341</v>
+        <v>0.0081154103842393053</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3">
@@ -277,22 +280,22 @@
         <v>9</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F3" s="0">
-        <v>5.9144749877050096e-10</v>
+        <v>5.9144749045337464e-10</v>
       </c>
       <c r="G3" s="0">
         <v>1.1828950041703479e-09</v>
       </c>
       <c r="H3" s="0">
-        <v>0.0097633539683750215</v>
+        <v>0.0097633539683767978</v>
       </c>
       <c r="I3" s="0">
-        <v>0.12548337809205148</v>
+        <v>0.12548337809205459</v>
       </c>
       <c r="J3" s="0">
-        <v>39.932136970501034</v>
+        <v>39.932137000209629</v>
       </c>
       <c r="K3" s="0">
         <v>1</v>
@@ -301,16 +304,16 @@
         <v>490</v>
       </c>
       <c r="M3" s="0">
-        <v>0.57094362973118518</v>
+        <v>0.57094362994356962</v>
       </c>
       <c r="N3" s="0">
-        <v>0.075353303158370036</v>
+        <v>0.075353303210206765</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
